--- a/qlib/math/tutorial/math.xlsx
+++ b/qlib/math/tutorial/math.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edev\private\qml\src\qlib\math\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E37F08-4C0E-42B9-A197-0576CF3B9236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC1A59-EAD6-425F-A241-CA8814A992D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25670" yWindow="7320" windowWidth="19730" windowHeight="20650" activeTab="2" xr2:uid="{0CA8DFDA-6426-4065-A51A-1F6FFF16291D}"/>
+    <workbookView xWindow="25700" yWindow="8290" windowWidth="25460" windowHeight="19790" activeTab="2" xr2:uid="{0CA8DFDA-6426-4065-A51A-1F6FFF16291D}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="45">
   <si>
     <t>uid</t>
   </si>
@@ -191,6 +191,12 @@
   <si>
     <t>.qml.bls</t>
   </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>{.kmp1:x;x}</t>
+  </si>
 </sst>
 </file>
 
@@ -233,11 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +583,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156055D-491F-43A2-8308-D9D35EBEA6E1}">
   <dimension ref="B2:AC210"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2:G92">_xll.dna_execute(Connection!$C$7,Connection!$C$7,C2:E4)</f>
+        <f t="array" ref="F2:G93">_xll.dna_execute(Connection!$C$7,Connection!$C$7,C2:E4)</f>
         <v>rnd</v>
       </c>
       <c r="G2" t="str">
@@ -689,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>-2.5300000000000002</v>
+        <v>-2.54</v>
       </c>
       <c r="G3">
         <v>0.01</v>
@@ -700,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>-2.1800000000000002</v>
+        <v>-2.38</v>
       </c>
       <c r="G4">
         <v>0.01</v>
@@ -750,7 +757,7 @@
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F5">
-        <v>-2.16</v>
+        <v>-2.37</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -797,7 +804,7 @@
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F6">
-        <v>-2.09</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="G6">
         <v>0.01</v>
@@ -826,7 +833,7 @@
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F7">
-        <v>-2</v>
+        <v>-1.61</v>
       </c>
       <c r="G7">
         <v>0.01</v>
@@ -836,7 +843,7 @@
       </c>
       <c r="J7">
         <f>AVERAGE(_xlfn.ANCHORARRAY(J11))</f>
-        <v>3.0745051983190166</v>
+        <v>3.1536561571313944</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -853,7 +860,7 @@
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F8">
-        <v>-1.9100000000000001</v>
+        <v>-1.57</v>
       </c>
       <c r="G8">
         <v>0.01</v>
@@ -863,7 +870,7 @@
       </c>
       <c r="J8">
         <f>STDEVA(_xlfn.ANCHORARRAY(J11))</f>
-        <v>9.5839292019884414</v>
+        <v>8.679197750186562</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -880,7 +887,7 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F9">
-        <v>-1.81</v>
+        <v>-1.51</v>
       </c>
       <c r="G9">
         <v>0.01</v>
@@ -888,7 +895,7 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F10">
-        <v>-1.62</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="G10">
         <v>0.01</v>
@@ -915,14 +922,14 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F11">
-        <v>-1.6</v>
+        <v>-1.36</v>
       </c>
       <c r="G11">
         <v>0.01</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11:J210">TRANSPOSE(_xll.dna_execute($H$2,Connection!$C$7,I2,I4:J5,L4))</f>
-        <v>6.0297608886895588</v>
+        <v>3.4345168495923568</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" ref="O11:O60">TRANSPOSE(_xll.dna_execute($H$2,Connection!$C$7,O2,O4:P6,P7,P8))</f>
@@ -955,13 +962,13 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F12">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="G12">
         <v>0.01</v>
       </c>
       <c r="J12">
-        <v>9.3060067143030132</v>
+        <v>0.83258817263731411</v>
       </c>
       <c r="O12">
         <v>0.2</v>
@@ -990,13 +997,13 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F13">
-        <v>-1.44</v>
+        <v>-1.24</v>
       </c>
       <c r="G13">
         <v>0.01</v>
       </c>
       <c r="J13">
-        <v>-12.430989279660848</v>
+        <v>6.2818850938526696</v>
       </c>
       <c r="O13">
         <v>0.4</v>
@@ -1025,13 +1032,13 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F14">
-        <v>-1.42</v>
+        <v>-1.23</v>
       </c>
       <c r="G14">
         <v>0.01</v>
       </c>
       <c r="J14">
-        <v>2.2920776625486039</v>
+        <v>8.3452858747819487</v>
       </c>
       <c r="O14">
         <v>0.60000000000000009</v>
@@ -1051,13 +1058,13 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F15">
-        <v>-1.33</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="G15">
         <v>0.01</v>
       </c>
       <c r="J15">
-        <v>11.3943690185672</v>
+        <v>8.13992922390592</v>
       </c>
       <c r="O15">
         <v>0.8</v>
@@ -1077,13 +1084,13 @@
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="F16">
-        <v>-1.31</v>
+        <v>-1.1300000000000001</v>
       </c>
       <c r="G16">
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>3.4038543898512024</v>
+        <v>-16.726541861876136</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1103,13 +1110,13 @@
     </row>
     <row r="17" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F17">
-        <v>-1.19</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="G17">
         <v>0.01</v>
       </c>
       <c r="J17">
-        <v>-14.410517117067567</v>
+        <v>18.816204051580534</v>
       </c>
       <c r="O17">
         <v>1.2000000000000002</v>
@@ -1129,13 +1136,13 @@
     </row>
     <row r="18" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F18">
-        <v>-0.94000000000000006</v>
+        <v>-1.06</v>
       </c>
       <c r="G18">
         <v>0.01</v>
       </c>
       <c r="J18">
-        <v>18.435205199574135</v>
+        <v>-2.7584366038209698</v>
       </c>
       <c r="O18">
         <v>1.4000000000000001</v>
@@ -1155,13 +1162,13 @@
     </row>
     <row r="19" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F19">
-        <v>-0.88</v>
+        <v>-1.03</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J19">
-        <v>11.524592269981081</v>
+        <v>19.772573027968267</v>
       </c>
       <c r="O19">
         <v>1.6</v>
@@ -1181,13 +1188,13 @@
     </row>
     <row r="20" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F20">
-        <v>-0.84</v>
+        <v>-0.97</v>
       </c>
       <c r="G20">
         <v>0.01</v>
       </c>
       <c r="J20">
-        <v>11.179213458393964</v>
+        <v>-5.9274684958817492E-2</v>
       </c>
       <c r="O20">
         <v>1.8</v>
@@ -1207,13 +1214,13 @@
     </row>
     <row r="21" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F21">
-        <v>-0.83000000000000007</v>
+        <v>-0.95000000000000007</v>
       </c>
       <c r="G21">
         <v>0.01</v>
       </c>
       <c r="J21">
-        <v>1.5923568354782307</v>
+        <v>-24.059575516185113</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -1233,13 +1240,13 @@
     </row>
     <row r="22" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F22">
-        <v>-0.79</v>
+        <v>-0.92</v>
       </c>
       <c r="G22">
         <v>0.01</v>
       </c>
       <c r="J22">
-        <v>8.3628541505047522</v>
+        <v>-4.7912801753453689</v>
       </c>
       <c r="O22">
         <v>2.2000000000000002</v>
@@ -1259,13 +1266,13 @@
     </row>
     <row r="23" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F23">
-        <v>-0.77</v>
+        <v>-0.84</v>
       </c>
       <c r="G23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J23">
-        <v>0.62184303577120748</v>
+        <v>4.4720336453862179</v>
       </c>
       <c r="O23">
         <v>2.4000000000000004</v>
@@ -1285,13 +1292,13 @@
     </row>
     <row r="24" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F24">
-        <v>-0.68</v>
+        <v>-0.83000000000000007</v>
       </c>
       <c r="G24">
         <v>0.01</v>
       </c>
       <c r="J24">
-        <v>12.193955569846993</v>
+        <v>10.5992133924236</v>
       </c>
       <c r="O24">
         <v>2.6</v>
@@ -1311,13 +1318,13 @@
     </row>
     <row r="25" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F25">
-        <v>-0.57000000000000006</v>
+        <v>-0.75</v>
       </c>
       <c r="G25">
         <v>0.01</v>
       </c>
       <c r="J25">
-        <v>9.1481350095153147</v>
+        <v>12.840966059077411</v>
       </c>
       <c r="O25">
         <v>2.8000000000000003</v>
@@ -1337,13 +1344,13 @@
     </row>
     <row r="26" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F26">
-        <v>-0.56000000000000005</v>
+        <v>-0.72</v>
       </c>
       <c r="G26">
         <v>0.01</v>
       </c>
       <c r="J26">
-        <v>-6.1286160082354826</v>
+        <v>3.5972831862736347</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -1363,13 +1370,13 @@
     </row>
     <row r="27" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F27">
-        <v>-0.55000000000000004</v>
+        <v>-0.69000000000000006</v>
       </c>
       <c r="G27">
         <v>0.01</v>
       </c>
       <c r="J27">
-        <v>5.5230423067406287</v>
+        <v>18.095235171921615</v>
       </c>
       <c r="O27">
         <v>3.2</v>
@@ -1389,13 +1396,13 @@
     </row>
     <row r="28" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F28">
-        <v>-0.54</v>
+        <v>-0.67</v>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J28">
-        <v>-20.843119024003773</v>
+        <v>8.5671177890100463</v>
       </c>
       <c r="O28">
         <v>3.4000000000000004</v>
@@ -1415,13 +1422,13 @@
     </row>
     <row r="29" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F29">
-        <v>-0.52</v>
+        <v>-0.63</v>
       </c>
       <c r="G29">
         <v>0.01</v>
       </c>
       <c r="J29">
-        <v>5.1073432978644329</v>
+        <v>14.451859194116379</v>
       </c>
       <c r="O29">
         <v>3.6</v>
@@ -1441,13 +1448,13 @@
     </row>
     <row r="30" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F30">
-        <v>-0.48</v>
+        <v>-0.62</v>
       </c>
       <c r="G30">
         <v>0.01</v>
       </c>
       <c r="J30">
-        <v>-0.38724290081976775</v>
+        <v>12.069998480976027</v>
       </c>
       <c r="O30">
         <v>3.8000000000000003</v>
@@ -1467,13 +1474,13 @@
     </row>
     <row r="31" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F31">
-        <v>-0.47000000000000003</v>
+        <v>-0.6</v>
       </c>
       <c r="G31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J31">
-        <v>5.2735569403925151</v>
+        <v>4.441424191989614</v>
       </c>
       <c r="O31">
         <v>4</v>
@@ -1493,13 +1500,13 @@
     </row>
     <row r="32" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F32">
-        <v>-0.44</v>
+        <v>-0.59</v>
       </c>
       <c r="G32">
         <v>0.01</v>
       </c>
       <c r="J32">
-        <v>3.1668582502437426</v>
+        <v>12.401335181959436</v>
       </c>
       <c r="O32">
         <v>4.2</v>
@@ -1519,13 +1526,13 @@
     </row>
     <row r="33" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F33">
-        <v>-0.42</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G33">
         <v>0.01</v>
       </c>
       <c r="J33">
-        <v>11.920197101162335</v>
+        <v>-13.3551319374372</v>
       </c>
       <c r="O33">
         <v>4.4000000000000004</v>
@@ -1545,13 +1552,13 @@
     </row>
     <row r="34" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F34">
-        <v>-0.41000000000000003</v>
+        <v>-0.52</v>
       </c>
       <c r="G34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J34">
-        <v>4.7107418501305771</v>
+        <v>8.7680579700171357</v>
       </c>
       <c r="O34">
         <v>4.6000000000000005</v>
@@ -1571,13 +1578,13 @@
     </row>
     <row r="35" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F35">
-        <v>-0.38</v>
+        <v>-0.51</v>
       </c>
       <c r="G35">
         <v>0.01</v>
       </c>
       <c r="J35">
-        <v>16.77206789411261</v>
+        <v>1.9095348552361684</v>
       </c>
       <c r="O35">
         <v>4.8000000000000007</v>
@@ -1597,13 +1604,13 @@
     </row>
     <row r="36" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F36">
-        <v>-0.37</v>
+        <v>-0.5</v>
       </c>
       <c r="G36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J36">
-        <v>3.2903356322870905</v>
+        <v>6.9292715377637233</v>
       </c>
       <c r="O36">
         <v>5</v>
@@ -1623,13 +1630,13 @@
     </row>
     <row r="37" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F37">
-        <v>-0.36</v>
+        <v>-0.47000000000000003</v>
       </c>
       <c r="G37">
         <v>0.01</v>
       </c>
       <c r="J37">
-        <v>4.0233422400549124</v>
+        <v>9.1329491111831409</v>
       </c>
       <c r="O37">
         <v>5.2</v>
@@ -1649,13 +1656,13 @@
     </row>
     <row r="38" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F38">
-        <v>-0.35000000000000003</v>
+        <v>-0.41000000000000003</v>
       </c>
       <c r="G38">
         <v>0.01</v>
       </c>
       <c r="J38">
-        <v>1.6024756667348934</v>
+        <v>9.3064129064220786</v>
       </c>
       <c r="O38">
         <v>5.4</v>
@@ -1675,13 +1682,13 @@
     </row>
     <row r="39" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F39">
-        <v>-0.34</v>
+        <v>-0.3</v>
       </c>
       <c r="G39">
         <v>0.01</v>
       </c>
       <c r="J39">
-        <v>0.336561178461392</v>
+        <v>18.932957259057165</v>
       </c>
       <c r="O39">
         <v>5.6000000000000005</v>
@@ -1701,13 +1708,13 @@
     </row>
     <row r="40" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F40">
-        <v>-0.33</v>
+        <v>-0.26</v>
       </c>
       <c r="G40">
         <v>0.02</v>
       </c>
       <c r="J40">
-        <v>18.264806639312241</v>
+        <v>-11.551647426096041</v>
       </c>
       <c r="O40">
         <v>5.8000000000000007</v>
@@ -1727,13 +1734,13 @@
     </row>
     <row r="41" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F41">
-        <v>-0.32</v>
+        <v>-0.23</v>
       </c>
       <c r="G41">
         <v>0.01</v>
       </c>
       <c r="J41">
-        <v>5.9375483242297991</v>
+        <v>13.103627146135279</v>
       </c>
       <c r="O41">
         <v>6</v>
@@ -1753,13 +1760,13 @@
     </row>
     <row r="42" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F42">
-        <v>-0.28999999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="G42">
         <v>0.01</v>
       </c>
       <c r="J42">
-        <v>-8.6247050212717458</v>
+        <v>10.727967897564739</v>
       </c>
       <c r="O42">
         <v>6.2</v>
@@ -1779,13 +1786,13 @@
     </row>
     <row r="43" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F43">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="G43">
         <v>0.01</v>
       </c>
       <c r="J43">
-        <v>9.3831518405107417</v>
+        <v>-1.2046465301120488</v>
       </c>
       <c r="O43">
         <v>6.4</v>
@@ -1805,13 +1812,13 @@
     </row>
     <row r="44" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F44">
-        <v>-0.19</v>
+        <v>-0.16</v>
       </c>
       <c r="G44">
         <v>0.01</v>
       </c>
       <c r="J44">
-        <v>15.310833704571181</v>
+        <v>-10.175658415984344</v>
       </c>
       <c r="O44">
         <v>6.6000000000000005</v>
@@ -1831,13 +1838,13 @@
     </row>
     <row r="45" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F45">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="G45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J45">
-        <v>-0.88315597210124031</v>
+        <v>0.52536479273232128</v>
       </c>
       <c r="O45">
         <v>6.8000000000000007</v>
@@ -1857,13 +1864,13 @@
     </row>
     <row r="46" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F46">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="G46">
         <v>0.01</v>
       </c>
       <c r="J46">
-        <v>3.0884770139952709</v>
+        <v>-1.173043137170513</v>
       </c>
       <c r="O46">
         <v>7</v>
@@ -1883,13 +1890,13 @@
     </row>
     <row r="47" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F47">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="G47">
         <v>0.01</v>
       </c>
       <c r="J47">
-        <v>-7.731750823004365</v>
+        <v>-5.3171729211151373</v>
       </c>
       <c r="O47">
         <v>7.2</v>
@@ -1909,13 +1916,13 @@
     </row>
     <row r="48" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F48">
-        <v>-0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G48">
         <v>0.01</v>
       </c>
       <c r="J48">
-        <v>8.5545422509043476</v>
+        <v>-7.1297107491022764</v>
       </c>
       <c r="O48">
         <v>7.4</v>
@@ -1935,13 +1942,13 @@
     </row>
     <row r="49" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F49">
-        <v>-0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G49">
         <v>0.01</v>
       </c>
       <c r="J49">
-        <v>5.5388762874588338</v>
+        <v>5.3153776915530768</v>
       </c>
       <c r="O49">
         <v>7.6000000000000005</v>
@@ -1961,13 +1968,13 @@
     </row>
     <row r="50" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F50">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="G50">
         <v>0.01</v>
       </c>
       <c r="J50">
-        <v>-2.789409123158217</v>
+        <v>3.6894641826364252</v>
       </c>
       <c r="O50">
         <v>7.8000000000000007</v>
@@ -1987,13 +1994,13 @@
     </row>
     <row r="51" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F51">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G51">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J51">
-        <v>-4.30389047056258</v>
+        <v>-0.34465350271540807</v>
       </c>
       <c r="O51">
         <v>8</v>
@@ -2013,13 +2020,13 @@
     </row>
     <row r="52" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F52">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G52">
         <v>0.01</v>
       </c>
       <c r="J52">
-        <v>11.867087970142537</v>
+        <v>-4.000914504004915</v>
       </c>
       <c r="O52">
         <v>8.2000000000000011</v>
@@ -2039,13 +2046,13 @@
     </row>
     <row r="53" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F53">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J53">
-        <v>7.4605603347150673</v>
+        <v>2.3532704194870577</v>
       </c>
       <c r="O53">
         <v>8.4</v>
@@ -2065,13 +2072,13 @@
     </row>
     <row r="54" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F54">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J54">
-        <v>4.017984661086822</v>
+        <v>-5.2794949037911554</v>
       </c>
       <c r="O54">
         <v>8.6</v>
@@ -2091,13 +2098,13 @@
     </row>
     <row r="55" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F55">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="G55">
         <v>0.01</v>
       </c>
       <c r="J55">
-        <v>-4.7458094020500079</v>
+        <v>-7.4905863764236944</v>
       </c>
       <c r="O55">
         <v>8.8000000000000007</v>
@@ -2117,13 +2124,13 @@
     </row>
     <row r="56" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F56">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="G56">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J56">
-        <v>10.723927150123776</v>
+        <v>-2.1623401208665074</v>
       </c>
       <c r="O56">
         <v>9</v>
@@ -2143,13 +2150,13 @@
     </row>
     <row r="57" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F57">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="G57">
         <v>0.01</v>
       </c>
       <c r="J57">
-        <v>-9.851275269738931</v>
+        <v>15.70838844200777</v>
       </c>
       <c r="O57">
         <v>9.2000000000000011</v>
@@ -2169,13 +2176,13 @@
     </row>
     <row r="58" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F58">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="G58">
         <v>0.01</v>
       </c>
       <c r="J58">
-        <v>14.390391796442332</v>
+        <v>-0.84036509379226931</v>
       </c>
       <c r="O58">
         <v>9.4</v>
@@ -2195,13 +2202,13 @@
     </row>
     <row r="59" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F59">
-        <v>0.24</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="G59">
         <v>0.01</v>
       </c>
       <c r="J59">
-        <v>1.3241205719416087</v>
+        <v>14.698144920845815</v>
       </c>
       <c r="O59">
         <v>9.6000000000000014</v>
@@ -2221,13 +2228,13 @@
     </row>
     <row r="60" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F60">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="G60">
         <v>0.01</v>
       </c>
       <c r="J60">
-        <v>1.0590437021777999</v>
+        <v>13.077190036392631</v>
       </c>
       <c r="O60">
         <v>9.8000000000000007</v>
@@ -2247,944 +2254,950 @@
     </row>
     <row r="61" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F61">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="G61">
         <v>0.01</v>
       </c>
       <c r="J61">
-        <v>1.9615931262837125</v>
+        <v>6.0552844332047826</v>
       </c>
     </row>
     <row r="62" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F62">
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="G62">
         <v>0.01</v>
       </c>
       <c r="J62">
-        <v>16.305996369452188</v>
+        <v>-0.61512022904503549</v>
       </c>
     </row>
     <row r="63" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F63">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="G63">
         <v>0.01</v>
       </c>
       <c r="J63">
-        <v>9.346658142520754</v>
+        <v>0.3616135840797261</v>
       </c>
     </row>
     <row r="64" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F64">
-        <v>0.34</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G64">
         <v>0.01</v>
       </c>
       <c r="J64">
-        <v>6.6961390405447663</v>
+        <v>-1.5877545757272022</v>
       </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F65">
-        <v>0.42</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="G65">
         <v>0.01</v>
       </c>
       <c r="J65">
-        <v>6.6715661956662231E-4</v>
+        <v>8.0380830253569524</v>
       </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F66">
-        <v>0.48</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G66">
         <v>0.01</v>
       </c>
       <c r="J66">
-        <v>2.9757584673626454</v>
+        <v>-3.6574296244325382</v>
       </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F67">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="G67">
         <v>0.01</v>
       </c>
       <c r="J67">
-        <v>-5.3970675299415092</v>
+        <v>0.92901020064065332</v>
       </c>
     </row>
     <row r="68" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F68">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="G68">
         <v>0.01</v>
       </c>
       <c r="J68">
-        <v>17.344144079934406</v>
+        <v>-0.43818480948813443</v>
       </c>
     </row>
     <row r="69" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F69">
-        <v>0.57999999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="G69">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J69">
-        <v>-2.8360150737490377</v>
+        <v>-13.843367564271045</v>
       </c>
     </row>
     <row r="70" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F70">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="G70">
         <v>0.01</v>
       </c>
       <c r="J70">
-        <v>4.9366486401243117</v>
+        <v>4.4653012131315748</v>
       </c>
     </row>
     <row r="71" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F71">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="G71">
         <v>0.01</v>
       </c>
       <c r="J71">
-        <v>-14.621826270489656</v>
+        <v>1.2957168754081925</v>
       </c>
     </row>
     <row r="72" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F72">
-        <v>0.70000000000000007</v>
+        <v>0.89</v>
       </c>
       <c r="G72">
         <v>0.01</v>
       </c>
       <c r="J72">
-        <v>4.2083153151700365</v>
+        <v>1.2558328974916217</v>
       </c>
     </row>
     <row r="73" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F73">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="G73">
         <v>0.01</v>
       </c>
       <c r="J73">
-        <v>16.874401855820789</v>
+        <v>6.0070356584806914</v>
       </c>
     </row>
     <row r="74" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F74">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0.01</v>
       </c>
       <c r="J74">
-        <v>4.8148120701336676</v>
+        <v>2.7548792181489894</v>
       </c>
     </row>
     <row r="75" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F75">
-        <v>0.75</v>
+        <v>1.01</v>
       </c>
       <c r="G75">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J75">
-        <v>-10.705355010413331</v>
+        <v>-3.0907338155684396</v>
       </c>
     </row>
     <row r="76" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F76">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="G76">
         <v>0.01</v>
       </c>
       <c r="J76">
-        <v>-7.1039776100274814</v>
+        <v>-3.2584029476353766</v>
       </c>
     </row>
     <row r="77" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F77">
-        <v>0.85</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G77">
         <v>0.01</v>
       </c>
       <c r="J77">
-        <v>3.5642396265661631</v>
+        <v>-10.130181078812752</v>
       </c>
     </row>
     <row r="78" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F78">
-        <v>0.88</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G78">
         <v>0.01</v>
       </c>
       <c r="J78">
-        <v>-3.6573298556983627</v>
+        <v>-8.0246099611970738</v>
       </c>
     </row>
     <row r="79" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F79">
-        <v>0.91</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="G79">
         <v>0.01</v>
       </c>
       <c r="J79">
-        <v>-6.5465395368004184</v>
+        <v>21.77292305770229</v>
       </c>
     </row>
     <row r="80" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F80">
-        <v>0.94000000000000006</v>
+        <v>1.21</v>
       </c>
       <c r="G80">
         <v>0.01</v>
       </c>
       <c r="J80">
-        <v>17.0436839882288</v>
+        <v>8.5590455247162929</v>
       </c>
     </row>
     <row r="81" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F81">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="G81">
         <v>0.01</v>
       </c>
       <c r="J81">
-        <v>-0.10630483557595749</v>
+        <v>4.8940127535991333</v>
       </c>
     </row>
     <row r="82" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F82">
-        <v>1.1400000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="G82">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J82">
-        <v>11.748284169839147</v>
+        <v>4.6796834576381059</v>
       </c>
     </row>
     <row r="83" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F83">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="G83">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J83">
-        <v>6.4116471297758535</v>
+        <v>7.6401509817678042</v>
       </c>
     </row>
     <row r="84" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F84">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="G84">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J84">
-        <v>12.904926991561947</v>
+        <v>1.7160833705063443</v>
       </c>
     </row>
     <row r="85" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F85">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="G85">
         <v>0.01</v>
       </c>
       <c r="J85">
-        <v>1.2033668801085273</v>
+        <v>-18.218485278933631</v>
       </c>
     </row>
     <row r="86" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F86">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="G86">
         <v>0.01</v>
       </c>
       <c r="J86">
-        <v>8.7626704993141988</v>
+        <v>-13.854113200316899</v>
       </c>
     </row>
     <row r="87" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F87">
-        <v>1.34</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="G87">
         <v>0.01</v>
       </c>
       <c r="J87">
-        <v>16.77362664014511</v>
+        <v>0.70542654165254337</v>
       </c>
     </row>
     <row r="88" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F88">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="G88">
         <v>0.01</v>
       </c>
       <c r="J88">
-        <v>-16.838388627108355</v>
+        <v>12.919503668918159</v>
       </c>
     </row>
     <row r="89" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F89">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="G89">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J89">
-        <v>-9.9904897201292897</v>
+        <v>5.0077572963406087</v>
       </c>
     </row>
     <row r="90" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F90">
-        <v>1.51</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="G90">
         <v>0.01</v>
       </c>
       <c r="J90">
-        <v>12.060021632625785</v>
+        <v>1.5790640604196202</v>
       </c>
     </row>
     <row r="91" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F91">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="G91">
         <v>0.01</v>
       </c>
       <c r="J91">
-        <v>2.4402387312078297</v>
+        <v>-2.4031977228042338</v>
       </c>
     </row>
     <row r="92" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F92">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="G92">
         <v>0.01</v>
       </c>
       <c r="J92">
-        <v>3.4642261168489474</v>
+        <v>6.7881926023556227</v>
       </c>
     </row>
     <row r="93" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="G93">
+        <v>0.01</v>
+      </c>
       <c r="J93">
-        <v>-5.5475083682082502</v>
+        <v>6.7644523940882975</v>
       </c>
     </row>
     <row r="94" spans="6:10" x14ac:dyDescent="0.35">
       <c r="J94">
-        <v>-15.133594683425752</v>
+        <v>12.092306910281533</v>
       </c>
     </row>
     <row r="95" spans="6:10" x14ac:dyDescent="0.35">
       <c r="J95">
-        <v>-2.5318659505450256</v>
+        <v>5.2125577611248142</v>
       </c>
     </row>
     <row r="96" spans="6:10" x14ac:dyDescent="0.35">
       <c r="J96">
-        <v>1.7865018588589234</v>
+        <v>20.198263605826888</v>
       </c>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J97">
-        <v>19.315685229891443</v>
+        <v>-4.2655915858440316</v>
       </c>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J98">
-        <v>11.724560959297957</v>
+        <v>-3.339800846728183</v>
       </c>
     </row>
     <row r="99" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J99">
-        <v>-0.35698297650953092</v>
+        <v>-1.2751843204125981</v>
       </c>
     </row>
     <row r="100" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J100">
-        <v>17.73758188706514</v>
+        <v>12.514593683884087</v>
       </c>
     </row>
     <row r="101" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J101">
-        <v>-0.81481983467250529</v>
+        <v>6.6584091933226244</v>
       </c>
     </row>
     <row r="102" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J102">
-        <v>-0.39410421315934308</v>
+        <v>14.778718922794393</v>
       </c>
     </row>
     <row r="103" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J103">
-        <v>3.5691954866385305</v>
+        <v>-6.1860302399231628</v>
       </c>
     </row>
     <row r="104" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J104">
-        <v>17.592296065593843</v>
+        <v>8.273723672968373</v>
       </c>
     </row>
     <row r="105" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J105">
-        <v>-13.926665191834907</v>
+        <v>-1.8575117214892831</v>
       </c>
     </row>
     <row r="106" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J106">
-        <v>15.165108386860394</v>
+        <v>-7.5378434119987396</v>
       </c>
     </row>
     <row r="107" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J107">
-        <v>18.372589339862209</v>
+        <v>0.36072961996492525</v>
       </c>
     </row>
     <row r="108" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J108">
-        <v>-3.997842863790634</v>
+        <v>3.0134090300906715</v>
       </c>
     </row>
     <row r="109" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J109">
-        <v>13.610195126350185</v>
+        <v>0.36612982799285998</v>
       </c>
     </row>
     <row r="110" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J110">
-        <v>0.77313287525588992</v>
+        <v>13.472837342962203</v>
       </c>
     </row>
     <row r="111" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J111">
-        <v>10.426414533676661</v>
+        <v>9.1898070149519278</v>
       </c>
     </row>
     <row r="112" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J112">
-        <v>1.5571643860235802</v>
+        <v>0.64899313234533862</v>
       </c>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113">
-        <v>-5.6771554803332265</v>
+        <v>-7.5438322365472779</v>
       </c>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114">
-        <v>4.168420809907408</v>
+        <v>17.769050684525631</v>
       </c>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115">
-        <v>9.2176642246516352</v>
+        <v>-8.4875309029514749</v>
       </c>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116">
-        <v>-1.4999769545207791</v>
+        <v>-5.2812199505237523</v>
       </c>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117">
-        <v>-1.1960702048491356</v>
+        <v>5.3364665022442583</v>
       </c>
     </row>
     <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118">
-        <v>-14.275829515939058</v>
+        <v>-11.260459115762028</v>
       </c>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119">
-        <v>-2.4642348275547352</v>
+        <v>12.953170322520727</v>
       </c>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120">
-        <v>26.174008265499232</v>
+        <v>9.2605612175029446</v>
       </c>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121">
-        <v>-1.3514772422730843</v>
+        <v>-8.8043418087355771</v>
       </c>
     </row>
     <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122">
-        <v>4.8985789362901899</v>
+        <v>1.044975258709359</v>
       </c>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123">
-        <v>-2.842242840966076</v>
+        <v>3.3380233000164234</v>
       </c>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124">
-        <v>22.399356761775685</v>
+        <v>5.9875440461016005</v>
       </c>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125">
-        <v>4.4800928098721187</v>
+        <v>-15.892509103514122</v>
       </c>
     </row>
     <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126">
-        <v>4.6157852514497897</v>
+        <v>7.8203029239212807</v>
       </c>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127">
-        <v>-22.779102452538677</v>
+        <v>21.190228270222054</v>
       </c>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128">
-        <v>-7.7115386260222643</v>
+        <v>12.391200878465787</v>
       </c>
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129">
-        <v>4.4667315237262919</v>
+        <v>-2.0772525740618466</v>
       </c>
     </row>
     <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130">
-        <v>-12.112488800908983</v>
+        <v>1.8139374540392452</v>
       </c>
     </row>
     <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131">
-        <v>-5.2755832483599363</v>
+        <v>1.9382753381590205</v>
       </c>
     </row>
     <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132">
-        <v>6.2909797156966771</v>
+        <v>-1.6557736967901668</v>
       </c>
     </row>
     <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133">
-        <v>14.660231525165461</v>
+        <v>20.87134328415733</v>
       </c>
     </row>
     <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134">
-        <v>5.2212492698602961</v>
+        <v>10.116183471630755</v>
       </c>
     </row>
     <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135">
-        <v>-5.5003222006116737</v>
+        <v>4.1525896224659196</v>
       </c>
     </row>
     <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136">
-        <v>-0.32903302548906588</v>
+        <v>-2.2385129084917974</v>
       </c>
     </row>
     <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137">
-        <v>-8.5149976147381423</v>
+        <v>5.9719021108291788</v>
       </c>
     </row>
     <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138">
-        <v>13.912576720984056</v>
+        <v>3.1843423265720143</v>
       </c>
     </row>
     <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139">
-        <v>-1.6827669670775789</v>
+        <v>-2.1050098754631748</v>
       </c>
     </row>
     <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140">
-        <v>2.4543809575099216</v>
+        <v>-2.2558255448956448</v>
       </c>
     </row>
     <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141">
-        <v>-2.7196765888961023</v>
+        <v>13.051530789448815</v>
       </c>
     </row>
     <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142">
-        <v>19.557612759063712</v>
+        <v>6.4241422847111833</v>
       </c>
     </row>
     <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143">
-        <v>-15.485015096866714</v>
+        <v>9.8325000502528894</v>
       </c>
     </row>
     <row r="144" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J144">
-        <v>13.353897789324433</v>
+        <v>-1.6905826472159386</v>
       </c>
     </row>
     <row r="145" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J145">
-        <v>12.981823355975608</v>
+        <v>-4.9524760277253463</v>
       </c>
     </row>
     <row r="146" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J146">
-        <v>7.9690909367819875</v>
+        <v>-7.9789398898564787</v>
       </c>
     </row>
     <row r="147" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J147">
-        <v>15.923352170634203</v>
+        <v>-4.9928034348952437</v>
       </c>
     </row>
     <row r="148" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J148">
-        <v>9.9786995202433921</v>
+        <v>0.31797659394973454</v>
       </c>
     </row>
     <row r="149" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J149">
-        <v>-1.7749415648473041</v>
+        <v>15.801213205756232</v>
       </c>
     </row>
     <row r="150" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J150">
-        <v>3.6386412770636465</v>
+        <v>10.542003735527317</v>
       </c>
     </row>
     <row r="151" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J151">
-        <v>11.301571969512695</v>
+        <v>8.5078376338733541</v>
       </c>
     </row>
     <row r="152" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J152">
-        <v>-17.80098796850525</v>
+        <v>-10.847297805845217</v>
       </c>
     </row>
     <row r="153" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J153">
-        <v>11.375858034824056</v>
+        <v>5.6503541659002519</v>
       </c>
     </row>
     <row r="154" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J154">
-        <v>1.0514827209167648</v>
+        <v>3.5704782333361575</v>
       </c>
     </row>
     <row r="155" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J155">
-        <v>-4.9597494142428937</v>
+        <v>3.2551615404824705</v>
       </c>
     </row>
     <row r="156" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J156">
-        <v>5.6601037269572121</v>
+        <v>9.8404165778305384</v>
       </c>
     </row>
     <row r="157" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J157">
-        <v>7.8857408557019806</v>
+        <v>16.499670830271441</v>
       </c>
     </row>
     <row r="158" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J158">
-        <v>3.402960310845673</v>
+        <v>12.505094778495085</v>
       </c>
     </row>
     <row r="159" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J159">
-        <v>-1.9466494398258893</v>
+        <v>1.1852695279609007</v>
       </c>
     </row>
     <row r="160" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J160">
-        <v>-5.9602162692732303</v>
+        <v>9.0794783419432914</v>
       </c>
     </row>
     <row r="161" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J161">
-        <v>5.5617776052572179</v>
+        <v>-8.4081350882956674</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J162">
-        <v>-1.581835189667391</v>
+        <v>-2.439668501551119</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J163">
-        <v>-14.576265653778179</v>
+        <v>9.1659961726701447</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J164">
-        <v>-6.5895768880542516</v>
+        <v>17.666234828295433</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J165">
-        <v>2.5596386870715664</v>
+        <v>2.2788617852060007</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J166">
-        <v>12.846284110592558</v>
+        <v>4.5457725204307913</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J167">
-        <v>2.6478038564324207</v>
+        <v>5.9607488439072238</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J168">
-        <v>4.1625775515420234</v>
+        <v>4.2381826340472379</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J169">
-        <v>-10.016591107441002</v>
+        <v>14.857885497885775</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J170">
-        <v>-0.91685320583300367</v>
+        <v>2.1966499441735303</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J171">
-        <v>5.2798721295659083</v>
+        <v>18.451027520614538</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J172">
-        <v>15.023996852085039</v>
+        <v>2.7231399279003412</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J173">
-        <v>-8.0874464265049415</v>
+        <v>12.566903996030806</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J174">
-        <v>14.241559059708436</v>
+        <v>18.321936751152332</v>
       </c>
     </row>
     <row r="175" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J175">
-        <v>-2.6176162551985867</v>
+        <v>5.9730624860937809</v>
       </c>
     </row>
     <row r="176" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J176">
-        <v>-5.6016105001526153</v>
+        <v>11.677061213801343</v>
       </c>
     </row>
     <row r="177" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J177">
-        <v>5.2895303394420372</v>
+        <v>-7.068480407235187</v>
       </c>
     </row>
     <row r="178" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J178">
-        <v>11.836133931268769</v>
+        <v>8.598238303427614</v>
       </c>
     </row>
     <row r="179" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J179">
-        <v>5.679537410644671</v>
+        <v>7.1981453749744571</v>
       </c>
     </row>
     <row r="180" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J180">
-        <v>7.2020199904134881</v>
+        <v>10.572719161036874</v>
       </c>
     </row>
     <row r="181" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J181">
-        <v>3.5072422524238185</v>
+        <v>-3.0940114726578578</v>
       </c>
     </row>
     <row r="182" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J182">
-        <v>21.779603616554216</v>
+        <v>16.559571571281992</v>
       </c>
     </row>
     <row r="183" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J183">
-        <v>-2.3902138312793557</v>
+        <v>7.5652100163199103</v>
       </c>
     </row>
     <row r="184" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J184">
-        <v>4.0145321592237533</v>
+        <v>-6.8375526127688389</v>
       </c>
     </row>
     <row r="185" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J185">
-        <v>2.5696756500028402</v>
+        <v>10.112047709034785</v>
       </c>
     </row>
     <row r="186" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J186">
-        <v>7.814707703129776</v>
+        <v>4.0946663879182452</v>
       </c>
     </row>
     <row r="187" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J187">
-        <v>1.2434878965076908</v>
+        <v>-7.2090962022435416</v>
       </c>
     </row>
     <row r="188" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J188">
-        <v>-14.331409702186896</v>
+        <v>7.3359051409271423</v>
       </c>
     </row>
     <row r="189" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J189">
-        <v>5.2361241409430779</v>
+        <v>-10.595326986110216</v>
       </c>
     </row>
     <row r="190" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J190">
-        <v>18.937674686649544</v>
+        <v>-5.0801903325222177</v>
       </c>
     </row>
     <row r="191" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J191">
-        <v>-3.7327314146576134</v>
+        <v>-3.1810112799058938</v>
       </c>
     </row>
     <row r="192" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J192">
-        <v>-11.156685041520999</v>
+        <v>14.378974792703165</v>
       </c>
     </row>
     <row r="193" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J193">
-        <v>10.685508115167751</v>
+        <v>3.7909898445620289</v>
       </c>
     </row>
     <row r="194" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J194">
-        <v>-11.716231656006535</v>
+        <v>2.7673350350107779</v>
       </c>
     </row>
     <row r="195" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J195">
-        <v>11.511041162047484</v>
+        <v>-1.2503505986886232</v>
       </c>
     </row>
     <row r="196" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J196">
-        <v>12.419852470548836</v>
+        <v>10.60436873559456</v>
       </c>
     </row>
     <row r="197" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J197">
-        <v>-3.1943796691647623</v>
+        <v>-7.9517228283347361</v>
       </c>
     </row>
     <row r="198" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J198">
-        <v>-4.7139095865026377</v>
+        <v>1.106920601093579</v>
       </c>
     </row>
     <row r="199" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J199">
-        <v>15.7800349226893</v>
+        <v>-10.939441073280411</v>
       </c>
     </row>
     <row r="200" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J200">
-        <v>-20.943589950600476</v>
+        <v>-0.49809607149131807</v>
       </c>
     </row>
     <row r="201" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J201">
-        <v>-0.44758707838058731</v>
+        <v>10.755624674435982</v>
       </c>
     </row>
     <row r="202" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J202">
-        <v>-3.6335370241706055</v>
+        <v>-5.5971814734298455</v>
       </c>
     </row>
     <row r="203" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J203">
-        <v>13.041724386076039</v>
+        <v>7.7141279439998582</v>
       </c>
     </row>
     <row r="204" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J204">
-        <v>14.347506745717389</v>
+        <v>-8.7530181944999761</v>
       </c>
     </row>
     <row r="205" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J205">
-        <v>5.2046247686249743</v>
+        <v>11.342391346143161</v>
       </c>
     </row>
     <row r="206" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J206">
-        <v>-8.3680354186966746</v>
+        <v>-1.7791207610163191</v>
       </c>
     </row>
     <row r="207" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J207">
-        <v>19.886686952290361</v>
+        <v>-13.729610083239564</v>
       </c>
     </row>
     <row r="208" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J208">
-        <v>16.407224167931023</v>
+        <v>-2.2238310362120988</v>
       </c>
     </row>
     <row r="209" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J209">
-        <v>-11.915479617747344</v>
+        <v>-3.0503094469813981</v>
       </c>
     </row>
     <row r="210" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J210">
-        <v>-2.433627345431411</v>
+        <v>1.8548844423025113</v>
       </c>
     </row>
   </sheetData>
@@ -3194,15 +3207,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9BC00E-14D5-4C31-B2EF-C03BB27B3157}">
-  <dimension ref="B2:M306"/>
+  <dimension ref="B2:R306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -3212,18 +3225,21 @@
       <c r="L2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -3249,13 +3265,25 @@
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>95</v>
+      </c>
+      <c r="R6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -3282,13 +3310,25 @@
         <v>5.5698610919335714</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3314,13 +3354,25 @@
         <v>5.4821834038216224</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -3351,8 +3403,20 @@
       <c r="M9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -3380,11 +3444,23 @@
       <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="M10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -3412,11 +3488,23 @@
       <c r="L11" t="s">
         <v>36</v>
       </c>
-      <c r="M11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3447,8 +3535,20 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3574,7 @@
         <v>5.0456657387602029</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -3499,12 +3599,28 @@
       <c r="J14">
         <v>4.9587674735063558</v>
       </c>
-      <c r="M14" t="str" cm="1">
-        <f t="array" ref="M14">_xll.dna_execute($J$1,Connection!$C$7,qml!L2,qml!L6:M12)</f>
-        <v>'type</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="3" cm="1">
+        <f t="array" ref="M14:N14">_xll.dna_execute($J$1,Connection!$C$7,qml!L2,qml!L6:N12)</f>
+        <v>5.5195409761144134</v>
+      </c>
+      <c r="N14">
+        <v>5.5195409761144134</v>
+      </c>
+      <c r="P14" s="3" t="str" cm="1">
+        <f t="array" ref="P14:R20">_xll.dna_execute($J$1,Connection!$C$7,P2,P6:R12)</f>
+        <v>spot</v>
+      </c>
+      <c r="Q14">
+        <v>95</v>
+      </c>
+      <c r="R14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -3529,8 +3645,25 @@
       <c r="J15">
         <v>4.8720154879982616</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <f>M6-M9</f>
+        <v>-5</v>
+      </c>
+      <c r="N15">
+        <f>N6-N9</f>
+        <v>-5</v>
+      </c>
+      <c r="P15" t="str">
+        <v>type_</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>bls</v>
+      </c>
+      <c r="R15" t="str">
+        <v>bls</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -3555,8 +3688,17 @@
       <c r="J16">
         <v>4.7854149614023207</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P16" t="str">
+        <v>direct</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>call</v>
+      </c>
+      <c r="R16" t="str">
+        <v>call</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -3581,8 +3723,17 @@
       <c r="J17">
         <v>4.6989712820934812</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P17" t="str">
+        <v>strike</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -3607,8 +3758,17 @@
       <c r="J18">
         <v>4.6126900584101982</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P18" t="str">
+        <v>rate</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -3633,8 +3793,17 @@
       <c r="J19">
         <v>4.5265771300627797</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P19" t="str">
+        <v>vola</v>
+      </c>
+      <c r="Q19">
+        <v>0.2</v>
+      </c>
+      <c r="R19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3659,8 +3828,17 @@
       <c r="J20">
         <v>4.4406385802420871</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P20" t="str">
+        <v>matur</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +3864,7 @@
         <v>4.3548807484758996</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -3712,7 +3890,7 @@
         <v>4.2693102442870483</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -3738,7 +3916,7 @@
         <v>4.1839339617089486</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -3764,7 +3942,7 @@
         <v>4.0987590947206272</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -3790,7 +3968,7 @@
         <v>4.0137931536665619</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -3816,7 +3994,7 @@
         <v>3.9290439827329173</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -3842,7 +4020,7 @@
         <v>3.8445197785569292</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -3868,7 +4046,7 @@
         <v>3.7602291100517995</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -3894,7 +4072,7 @@
         <v>3.6761809395371436</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -3920,7 +4098,7 @@
         <v>3.5923846452707124</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +4124,7 @@
         <v>3.5088500454861773</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>38</v>
       </c>
